--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -675,7 +675,6 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
     &lt;code value="vital-signs"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -675,6 +675,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
     &lt;code value="vital-signs"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="568">
   <si>
     <t>Path</t>
   </si>
@@ -156,17 +156,17 @@
     <t/>
   </si>
   <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+    <t>FHIR Vital Signs Profile</t>
+  </si>
+  <si>
+    <t>The FHIR Vitals Signs profile sets minimum expectations for the Observation Resource to record, search and fetch the vital signs associated with a patient.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -600,7 +600,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -631,9 +631,6 @@
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -673,24 +670,204 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="vital-signs"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>vital-signs</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -700,16 +877,16 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+    <t>Coded Responses from C-CDA Vital Sign Results</t>
+  </si>
+  <si>
+    <t>Coded Responses from C-CDA Vital Sign Results.</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+    <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -720,10 +897,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>This identifies the vital sign result type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -788,7 +965,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -840,13 +1017,13 @@
 </t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>Often just a dateTime for Vital Signs</t>
+  </si>
+  <si>
+    <t>Often just a dateTime for Vital Signs.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -859,6 +1036,14 @@
     <t>closed</t>
   </si>
   <si>
+    <t xml:space="preserve">vs-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -883,7 +1068,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -930,20 +1115,17 @@
 </t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
+  </si>
+  <si>
+    <t>obs-7
+vs-2</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1114,8 +1296,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1193,7 +1375,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>https://johnmoehrke.github.io/MHV-PGHD/ValueSet/mhv-body-temperature-sites</t>
@@ -1343,7 +1525,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1472,17 +1654,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1494,7 +1676,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
@@ -1504,7 +1686,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1513,18 +1695,19 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
-  </si>
-  <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Used when reporting systolic and diastolic blood pressure.</t>
+  </si>
+  <si>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-3:If there is no a value a data absent reason must be present {value.exists() or dataAbsentReason.exists()}</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1550,6 +1733,9 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1563,10 +1749,23 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Vital Sign Value recorded with UCUM</t>
+  </si>
+  <si>
+    <t>Vital Sign Value recorded with UCUM.</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>Common UCUM units for recording Vital Signs.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs-3
+</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1583,6 +1782,10 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>obs-6
+vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1743,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO68"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1762,7 +1965,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1778,7 +1981,7 @@
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="75.2578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -4252,7 +4455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>189</v>
       </c>
@@ -4268,7 +4471,7 @@
         <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>56</v>
@@ -4316,11 +4519,9 @@
       <c r="W22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="X22" s="2"/>
+      <c r="Y22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4353,19 +4554,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4373,7 +4574,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4387,7 +4588,7 @@
         <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4396,19 +4597,19 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4418,7 +4619,7 @@
         <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>45</v>
@@ -4436,28 +4637,26 @@
         <v>136</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4481,22 +4680,24 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AO23" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4506,28 +4707,28 @@
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4537,7 +4738,7 @@
         <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>45</v>
@@ -4552,13 +4753,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4576,13 +4777,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4591,27 +4792,27 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4619,7 +4820,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
@@ -4631,23 +4832,19 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4695,7 +4892,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4707,22 +4904,22 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4730,18 +4927,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4750,19 +4947,19 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4800,19 +4997,19 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4824,7 +5021,7 @@
         <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>45</v>
@@ -4833,35 +5030,35 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4870,19 +5067,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4931,13 +5128,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4946,19 +5143,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4966,15 +5163,15 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>55</v>
@@ -4986,23 +5183,19 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -5038,17 +5231,19 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5060,22 +5255,22 @@
         <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5083,20 +5278,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -5105,23 +5298,21 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5157,54 +5348,54 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5212,13 +5403,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5227,24 +5418,26 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5286,7 +5479,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5307,13 +5500,13 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5321,7 +5514,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5332,7 +5525,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5344,18 +5537,18 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5403,13 +5596,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5418,27 +5611,27 @@
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5446,13 +5639,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
@@ -5461,26 +5654,24 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>45</v>
@@ -5510,17 +5701,19 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5529,7 +5722,7 @@
         <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>67</v>
@@ -5538,28 +5731,26 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5580,19 +5771,17 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5641,7 +5830,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5650,7 +5839,7 @@
         <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>67</v>
@@ -5659,24 +5848,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5696,19 +5885,23 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5756,7 +5949,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5768,7 +5961,7 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5777,10 +5970,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5791,18 +5984,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5811,21 +6004,23 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5861,31 +6056,31 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5894,10 +6089,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5906,23 +6101,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
@@ -5931,19 +6126,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5953,7 +6148,7 @@
         <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>45</v>
@@ -5968,13 +6163,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5992,10 +6187,10 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>55</v>
@@ -6007,27 +6202,27 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6035,39 +6230,39 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6087,13 +6282,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6111,7 +6306,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6126,19 +6321,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6146,7 +6341,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6157,7 +6352,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6169,18 +6364,18 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6204,11 +6399,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6226,13 +6423,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -6247,13 +6444,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6261,18 +6458,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6284,17 +6481,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6343,7 +6542,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6352,25 +6551,25 @@
         <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6378,21 +6577,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6401,19 +6600,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>132</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6450,19 +6649,17 @@
         <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6471,68 +6668,70 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6557,13 +6756,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6581,7 +6780,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6590,25 +6789,25 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6616,11 +6815,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6636,23 +6835,21 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6676,13 +6873,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6700,13 +6897,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6718,24 +6915,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6746,7 +6943,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6755,22 +6952,20 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6819,7 +7014,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6834,19 +7029,19 @@
         <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6854,7 +7049,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6868,27 +7063,29 @@
         <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6912,29 +7109,29 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6943,7 +7140,7 @@
         <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>67</v>
@@ -6952,26 +7149,28 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6980,31 +7179,31 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7029,13 +7228,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7053,7 +7252,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7062,7 +7261,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7071,24 +7270,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7099,7 +7298,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7111,17 +7310,15 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>389</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>390</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7170,7 +7367,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7182,41 +7379,41 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>395</v>
+        <v>72</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -7228,16 +7425,16 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>398</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7275,54 +7472,54 @@
         <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7333,7 +7530,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7342,22 +7539,22 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7406,19 +7603,19 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>412</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7427,10 +7624,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>414</v>
+        <v>369</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7441,7 +7638,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7458,26 +7655,30 @@
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>69</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>70</v>
+        <v>372</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7497,13 +7698,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7521,7 +7722,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>71</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7533,7 +7734,7 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7542,10 +7743,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7556,18 +7757,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7576,21 +7777,21 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7614,13 +7815,11 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7638,19 +7837,19 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7659,10 +7858,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7673,42 +7872,40 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7757,19 +7954,19 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7778,10 +7975,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7792,7 +7989,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7812,19 +8009,23 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7872,7 +8073,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7881,7 +8082,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7893,10 +8094,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7905,9 +8106,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7918,10 +8119,10 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>45</v>
@@ -7930,16 +8131,20 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>424</v>
+        <v>203</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7963,13 +8168,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7987,7 +8192,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7996,7 +8201,7 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -8008,10 +8213,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>428</v>
+        <v>155</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8022,18 +8227,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -8045,19 +8250,19 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8082,13 +8287,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8106,13 +8311,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -8124,24 +8329,24 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8152,7 +8357,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8164,19 +8369,19 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8201,13 +8406,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>448</v>
+        <v>45</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8225,7 +8430,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8243,13 +8448,13 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>441</v>
+        <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8260,7 +8465,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8283,18 +8488,18 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>451</v>
+        <v>203</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8318,13 +8523,11 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8342,7 +8545,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8360,24 +8563,24 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>45</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8388,7 +8591,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8400,16 +8603,20 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8433,13 +8640,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>445</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8457,7 +8664,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8478,10 +8685,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8492,7 +8699,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8512,19 +8719,19 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8574,13 +8781,13 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
@@ -8592,24 +8799,24 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>454</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>45</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8629,19 +8836,19 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8691,13 +8898,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8709,24 +8916,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>45</v>
+        <v>463</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM59" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8746,22 +8953,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8810,7 +9017,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8822,7 +9029,7 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>473</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8831,10 +9038,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8845,7 +9052,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8960,7 +9167,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9077,11 +9284,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9103,16 +9310,16 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9161,7 +9368,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9196,7 +9403,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9204,7 +9411,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>55</v>
@@ -9216,23 +9423,19 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>204</v>
+        <v>485</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9256,13 +9459,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9280,16 +9483,16 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>488</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>67</v>
@@ -9298,16 +9501,16 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>487</v>
+        <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>225</v>
+        <v>489</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>226</v>
+        <v>490</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
@@ -9315,7 +9518,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9335,23 +9538,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9399,7 +9598,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9408,7 +9607,7 @@
         <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>488</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9417,24 +9616,24 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>294</v>
+        <v>489</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>295</v>
+        <v>494</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9457,19 +9656,19 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>345</v>
+        <v>499</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9494,13 +9693,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>346</v>
+        <v>500</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>347</v>
+        <v>501</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9518,7 +9717,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9527,7 +9726,7 @@
         <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>67</v>
@@ -9536,13 +9735,13 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>45</v>
+        <v>502</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>155</v>
+        <v>503</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>349</v>
+        <v>421</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9553,11 +9752,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9576,19 +9775,19 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>352</v>
+        <v>505</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>353</v>
+        <v>506</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>354</v>
+        <v>507</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>355</v>
+        <v>508</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9613,13 +9812,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>356</v>
+        <v>509</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>357</v>
+        <v>510</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9637,7 +9836,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9655,24 +9854,24 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>358</v>
+        <v>502</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>359</v>
+        <v>503</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9683,7 +9882,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9695,19 +9894,17 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>45</v>
+        <v>512</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>411</v>
+        <v>515</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9756,13 +9953,13 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
@@ -9777,20 +9974,1434 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
+      <c r="M79" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO68">
+  <autoFilter ref="A1:AO80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9800,7 +11411,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -91,7 +91,7 @@
 - must have LOINC#8310-5 code
 - must have effectiveDateTime
 - must have valueQuantity with units from the MHV body temperatures (F and C)
-  - must be value between 92 &lt; n &lt; 108 Fahrenheit
+  - must be value between 92 &lt;= n &lt;= 108 Fahrenheit
 - must have status at final
 - must point at the patient
 - may have a bodySite from MHV body temperature sites (tongue, underarm, ear, mouth, or rectum)

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -93,6 +93,7 @@
 - must have vital-signs category
 - must have LOINC#8310-5 code
 - must have effectiveDateTime
+  - others might use effectivePeriod
 - must have valueQuantity with units from the MHV body temperatures (F and C)
   - must be value between 92 &lt;= n &lt;= 108 Fahrenheit
 - must have status at final

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="628">
   <si>
     <t>Property</t>
   </si>
@@ -279,6 +279,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>FHIR Vital Signs Profile</t>
@@ -2534,16 +2538,16 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2608,16 +2612,16 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2628,10 +2632,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2642,7 +2646,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2651,19 +2655,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2713,13 +2717,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2748,10 +2752,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2762,7 +2766,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2771,16 +2775,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2831,19 +2835,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2866,10 +2870,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2880,7 +2884,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2892,13 +2896,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2949,13 +2953,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2973,7 +2977,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2984,14 +2988,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3010,16 +3014,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3057,19 +3061,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3081,7 +3085,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3093,7 +3097,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3104,10 +3108,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3118,7 +3122,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3127,19 +3131,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3189,19 +3193,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3224,10 +3228,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3238,7 +3242,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3247,19 +3251,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3309,19 +3313,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3344,10 +3348,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3358,7 +3362,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3367,19 +3371,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3429,19 +3433,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3464,10 +3468,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3487,19 +3491,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3549,7 +3553,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3561,7 +3565,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3584,10 +3588,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3607,19 +3611,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3645,13 +3649,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3669,7 +3673,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3681,7 +3685,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3704,10 +3708,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3715,10 +3719,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3727,19 +3731,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3750,7 +3754,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3765,13 +3769,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3789,7 +3793,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3801,7 +3805,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3824,10 +3828,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3844,22 +3848,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3909,19 +3913,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3944,10 +3948,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3970,16 +3974,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4005,13 +4009,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4029,19 +4033,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4064,21 +4068,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4090,16 +4094,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4149,19 +4153,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4173,7 +4177,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4184,14 +4188,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4210,16 +4214,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4269,7 +4273,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4293,7 +4297,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4304,10 +4308,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4330,13 +4334,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4387,7 +4391,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4399,7 +4403,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4422,10 +4426,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4442,19 +4446,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4505,7 +4509,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4517,7 +4521,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4540,10 +4544,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4563,20 +4567,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4625,7 +4629,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4637,22 +4641,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4660,14 +4664,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4683,20 +4687,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4745,7 +4749,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4757,19 +4761,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4780,14 +4784,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4803,19 +4807,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4865,7 +4869,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4877,19 +4881,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4900,10 +4904,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4911,34 +4915,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4948,7 +4952,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4963,11 +4967,11 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4985,34 +4989,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5020,10 +5024,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5031,13 +5035,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -5046,19 +5050,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5083,29 +5087,29 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5117,7 +5121,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5129,10 +5133,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5140,26 +5144,26 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5168,19 +5172,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5205,13 +5209,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5229,7 +5233,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5241,7 +5245,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5253,10 +5257,10 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5264,10 +5268,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5278,7 +5282,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5290,13 +5294,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5347,13 +5351,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5371,7 +5375,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5382,14 +5386,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5408,16 +5412,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5455,19 +5459,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5479,7 +5483,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5491,7 +5495,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5502,10 +5506,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5513,34 +5517,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5589,7 +5593,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5601,7 +5605,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5610,10 +5614,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5624,10 +5628,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5638,7 +5642,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5650,13 +5654,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5707,13 +5711,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5731,7 +5735,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5742,14 +5746,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5768,16 +5772,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5815,19 +5819,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5839,7 +5843,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5851,7 +5855,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5862,10 +5866,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5873,41 +5877,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -5949,19 +5953,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5970,10 +5974,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5984,10 +5988,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5998,7 +6002,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -6007,19 +6011,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6069,19 +6073,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6090,10 +6094,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6104,10 +6108,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6115,39 +6119,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>82</v>
@@ -6189,19 +6193,19 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6210,10 +6214,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6224,10 +6228,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6238,7 +6242,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6247,20 +6251,20 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6309,19 +6313,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6330,10 +6334,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6344,10 +6348,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6358,7 +6362,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6367,22 +6371,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6431,19 +6435,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6452,10 +6456,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6466,10 +6470,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6480,7 +6484,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6489,22 +6493,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6553,19 +6557,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6574,10 +6578,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6588,45 +6592,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6636,7 +6640,7 @@
         <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>82</v>
@@ -6651,13 +6655,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6675,45 +6679,45 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6721,34 +6725,34 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6797,34 +6801,34 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6832,10 +6836,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6855,19 +6859,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6917,7 +6921,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6929,7 +6933,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6938,13 +6942,13 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6952,14 +6956,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6975,22 +6979,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7039,34 +7043,34 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7074,45 +7078,45 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7149,44 +7153,44 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7194,47 +7198,47 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7283,34 +7287,34 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7318,10 +7322,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7341,19 +7345,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7403,19 +7407,19 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7424,13 +7428,13 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7438,10 +7442,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7461,20 +7465,20 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7523,7 +7527,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7535,22 +7539,22 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7558,10 +7562,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7572,31 +7576,31 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7633,58 +7637,58 @@
         <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -7694,31 +7698,31 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7767,45 +7771,45 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7816,7 +7820,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7828,13 +7832,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7885,13 +7889,13 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
@@ -7909,7 +7913,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7920,14 +7924,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7946,16 +7950,16 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7993,19 +7997,19 @@
         <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8017,7 +8021,7 @@
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8029,7 +8033,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8040,10 +8044,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8054,7 +8058,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8063,22 +8067,22 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8094,10 +8098,10 @@
         <v>82</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>82</v>
@@ -8127,19 +8131,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8148,10 +8152,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8162,10 +8166,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8176,35 +8180,35 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>82</v>
@@ -8225,13 +8229,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8249,19 +8253,19 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8270,10 +8274,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8284,10 +8288,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8298,7 +8302,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8307,20 +8311,20 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8345,11 +8349,11 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8367,19 +8371,19 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8388,10 +8392,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8402,10 +8406,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8416,7 +8420,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8425,20 +8429,20 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8487,19 +8491,19 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8508,10 +8512,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8522,10 +8526,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8536,7 +8540,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8545,22 +8549,22 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8609,19 +8613,19 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8630,10 +8634,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8644,10 +8648,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8661,7 +8665,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
@@ -8670,19 +8674,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8707,13 +8711,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8731,19 +8735,19 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8752,10 +8756,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8766,14 +8770,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8792,19 +8796,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8829,13 +8833,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8853,7 +8857,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8865,33 +8869,33 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8902,7 +8906,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8914,19 +8918,19 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8975,7 +8979,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8987,7 +8991,7 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8996,10 +9000,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9010,10 +9014,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9024,7 +9028,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -9036,16 +9040,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9071,11 +9075,11 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9093,45 +9097,45 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9154,19 +9158,19 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9191,13 +9195,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9215,19 +9219,19 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9236,10 +9240,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9250,10 +9254,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9276,16 +9280,16 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9335,45 +9339,45 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9396,16 +9400,16 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9455,45 +9459,45 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9516,19 +9520,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9577,7 +9581,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9589,7 +9593,7 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9598,10 +9602,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9612,10 +9616,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9626,7 +9630,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9638,13 +9642,13 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9695,13 +9699,13 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
@@ -9719,7 +9723,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9730,14 +9734,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9756,16 +9760,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9815,7 +9819,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9827,7 +9831,7 @@
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9839,7 +9843,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9850,14 +9854,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9870,25 +9874,25 @@
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9937,7 +9941,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9949,7 +9953,7 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9961,7 +9965,7 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9972,10 +9976,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9986,7 +9990,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9998,13 +10002,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10055,19 +10059,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10076,10 +10080,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10090,10 +10094,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10104,7 +10108,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10116,13 +10120,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10173,19 +10177,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10194,10 +10198,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10208,10 +10212,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10222,7 +10226,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10234,19 +10238,19 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10271,13 +10275,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10295,31 +10299,31 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10330,10 +10334,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10356,19 +10360,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10393,13 +10397,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10417,7 +10421,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10429,19 +10433,19 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10452,10 +10456,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10466,7 +10470,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10478,17 +10482,17 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10537,19 +10541,19 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10561,7 +10565,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10572,10 +10576,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10586,7 +10590,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10598,13 +10602,13 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10655,19 +10659,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10676,10 +10680,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10690,10 +10694,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10713,19 +10717,19 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10775,7 +10779,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10787,7 +10791,7 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10796,10 +10800,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10810,10 +10814,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10833,19 +10837,19 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10895,7 +10899,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10907,7 +10911,7 @@
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
@@ -10916,10 +10920,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10930,10 +10934,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10947,28 +10951,28 @@
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11017,7 +11021,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11029,7 +11033,7 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11038,10 +11042,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11052,10 +11056,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11066,7 +11070,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11078,13 +11082,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11135,13 +11139,13 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
@@ -11159,7 +11163,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11170,14 +11174,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11196,16 +11200,16 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11255,7 +11259,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11267,7 +11271,7 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11279,7 +11283,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11290,14 +11294,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11310,25 +11314,25 @@
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11377,7 +11381,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11389,7 +11393,7 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11401,7 +11405,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11412,10 +11416,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11423,34 +11427,34 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11475,13 +11479,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11499,34 +11503,34 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11534,10 +11538,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11548,31 +11552,31 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11597,13 +11601,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11621,45 +11625,45 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11670,10 +11674,10 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>82</v>
@@ -11682,19 +11686,19 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11719,13 +11723,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11743,19 +11747,19 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11764,10 +11768,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11778,14 +11782,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11804,19 +11808,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11841,13 +11845,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11865,7 +11869,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11877,33 +11881,33 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11929,16 +11933,16 @@
         <v>82</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11987,7 +11991,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11999,7 +12003,7 @@
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12008,10 +12012,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Observation that declares how MHV will Create/Update/Read in PGHD for body temperature measurements.
+    <t>A profile on the Observation that declares how MHV will Create/Read in PGHD for body temperature measurements.
 Note this is compliant with FHIR core vital-signs.
 - must be marked with MHV app tag
 - must have vital-signs category

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="620">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -95,7 +95,7 @@
 - must have effectiveDateTime
   - others might use effectivePeriod
 - must have valueQuantity with units from the MHV body temperatures (F and C)
-  - must be value between 92 &lt;= n &lt;= 108 Fahrenheit
+  - must be value between 80 &lt;= n &lt;= 110 Fahrenheit
 - must have status at final
 - must point at the patient
 - may have a bodySite from MHV body temperature sites (tongue, underarm, ear, mouth, or rectum)
@@ -294,6 +294,10 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -451,7 +455,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -471,7 +475,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1203,7 +1207,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1305,25 +1309,10 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.id</t>
-  </si>
-  <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.extension</t>
-  </si>
-  <si>
     <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.value</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
@@ -1346,14 +1335,14 @@
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="92"/&gt;
+  &lt;value value="80"/&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="[degF]"/&gt;
 &lt;/valueQuantity&gt;</t>
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="108"/&gt;
+  &lt;value value="110"/&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="[degF]"/&gt;
 &lt;/valueQuantity&gt;</t>
@@ -1368,9 +1357,6 @@
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.comparator</t>
-  </si>
-  <si>
     <t>Observation.value[x].comparator</t>
   </si>
   <si>
@@ -1401,9 +1387,6 @@
     <t>IVL properties</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.unit</t>
-  </si>
-  <si>
     <t>Observation.value[x].unit</t>
   </si>
   <si>
@@ -1426,9 +1409,6 @@
   </si>
   <si>
     <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.system</t>
   </si>
   <si>
     <t>Observation.value[x].system</t>
@@ -1451,9 +1431,6 @@
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.code</t>
   </si>
   <si>
     <t>Observation.value[x].code</t>
@@ -2122,10 +2099,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2330,7 +2307,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP80"/>
+  <dimension ref="A1:AP79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2609,19 +2586,19 @@
         <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2632,10 +2609,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2646,7 +2623,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2655,19 +2632,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2717,13 +2694,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2752,10 +2729,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2766,7 +2743,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2775,16 +2752,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2835,19 +2812,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2870,10 +2847,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2884,7 +2861,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2896,13 +2873,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2953,13 +2930,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2977,7 +2954,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2988,14 +2965,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3014,16 +2991,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3061,19 +3038,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3085,7 +3062,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3097,7 +3074,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3108,10 +3085,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3122,7 +3099,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3131,19 +3108,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3193,19 +3170,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3228,10 +3205,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3242,7 +3219,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3251,19 +3228,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3313,19 +3290,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3348,10 +3325,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3362,7 +3339,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3371,19 +3348,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3433,19 +3410,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3468,10 +3445,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3491,19 +3468,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3553,7 +3530,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3565,7 +3542,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3588,10 +3565,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3611,19 +3588,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3649,13 +3626,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3673,7 +3650,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3685,7 +3662,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3708,10 +3685,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3719,10 +3696,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3731,19 +3708,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3754,7 +3731,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3769,13 +3746,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3793,7 +3770,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3805,7 +3782,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3828,10 +3805,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3848,22 +3825,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3913,19 +3890,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3948,10 +3925,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3974,16 +3951,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4009,13 +3986,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4033,19 +4010,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4068,21 +4045,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4094,16 +4071,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4153,19 +4130,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4177,7 +4154,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4188,14 +4165,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4214,16 +4191,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4273,7 +4250,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4297,7 +4274,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4308,10 +4285,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4334,13 +4311,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4391,7 +4368,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4403,7 +4380,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4426,10 +4403,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4446,19 +4423,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4509,7 +4486,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4521,7 +4498,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4544,10 +4521,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4567,20 +4544,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4629,7 +4606,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4641,22 +4618,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4664,14 +4641,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4687,20 +4664,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4749,7 +4726,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4761,19 +4738,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4784,14 +4761,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4807,19 +4784,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4869,7 +4846,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4881,19 +4858,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4904,10 +4881,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4915,34 +4892,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4952,7 +4929,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4967,11 +4944,11 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4989,34 +4966,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5024,10 +5001,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5035,13 +5012,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -5050,19 +5027,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5087,29 +5064,29 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5121,7 +5098,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5133,10 +5110,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5144,26 +5121,26 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5172,19 +5149,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5209,13 +5186,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5233,7 +5210,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5245,7 +5222,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5257,10 +5234,10 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5268,10 +5245,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5282,7 +5259,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5294,13 +5271,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5351,13 +5328,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5375,7 +5352,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5386,14 +5363,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5412,16 +5389,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5459,19 +5436,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5483,7 +5460,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5495,7 +5472,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5506,10 +5483,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5517,34 +5494,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5593,7 +5570,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5605,7 +5582,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5614,10 +5591,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5628,10 +5605,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5642,7 +5619,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5654,13 +5631,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5711,13 +5688,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5735,7 +5712,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5746,14 +5723,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5772,16 +5749,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5819,19 +5796,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5843,7 +5820,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5855,7 +5832,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5866,10 +5843,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5877,41 +5854,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -5953,19 +5930,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5974,10 +5951,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5988,10 +5965,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6002,7 +5979,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -6011,19 +5988,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6073,19 +6050,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6094,10 +6071,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6108,10 +6085,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6119,39 +6096,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>82</v>
@@ -6193,19 +6170,19 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6214,10 +6191,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6228,10 +6205,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6242,7 +6219,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6251,20 +6228,20 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6313,19 +6290,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6334,10 +6311,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6348,10 +6325,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6362,7 +6339,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6371,22 +6348,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6435,19 +6412,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6456,10 +6433,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6470,10 +6447,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6484,7 +6461,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6493,22 +6470,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6557,19 +6534,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6578,10 +6555,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6592,45 +6569,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6640,7 +6617,7 @@
         <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>82</v>
@@ -6655,13 +6632,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6679,45 +6656,45 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6725,34 +6702,34 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6801,34 +6778,34 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6836,10 +6813,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6859,19 +6836,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6921,7 +6898,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6933,7 +6910,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6942,13 +6919,13 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6956,14 +6933,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6979,22 +6956,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7043,34 +7020,34 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7078,45 +7055,45 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7153,44 +7130,44 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7198,47 +7175,47 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7287,34 +7264,34 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7322,10 +7299,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7345,19 +7322,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7407,19 +7384,19 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7428,13 +7405,13 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7442,10 +7419,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7465,20 +7442,20 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7527,7 +7504,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7539,22 +7516,22 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7562,10 +7539,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7576,31 +7553,31 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7637,59 +7614,59 @@
         <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C45" t="s" s="2">
         <v>409</v>
       </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7698,32 +7675,28 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>108</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7771,37 +7744,37 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -7809,18 +7782,18 @@
         <v>410</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7832,15 +7805,17 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7877,31 +7852,31 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7913,7 +7888,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7924,21 +7899,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7947,21 +7922,23 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>114</v>
+        <v>413</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7976,10 +7953,10 @@
         <v>82</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>82</v>
@@ -7997,31 +7974,31 @@
         <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>120</v>
+        <v>419</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8030,10 +8007,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8044,10 +8021,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8058,92 +8035,92 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8152,10 +8129,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8166,10 +8143,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8180,36 +8157,34 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8229,13 +8204,11 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8253,19 +8226,19 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8274,10 +8247,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8288,10 +8261,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8302,7 +8275,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8311,20 +8284,20 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8349,11 +8322,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8371,19 +8346,19 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8392,10 +8367,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8406,7 +8381,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>447</v>
@@ -8420,7 +8395,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8429,10 +8404,10 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>448</v>
@@ -8440,9 +8415,11 @@
       <c r="M51" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8491,19 +8468,19 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8512,7 +8489,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>453</v>
@@ -8529,7 +8506,7 @@
         <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8540,31 +8517,31 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8589,13 +8566,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8613,19 +8590,19 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8634,10 +8611,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>444</v>
+        <v>193</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8648,14 +8625,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8665,7 +8642,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
@@ -8674,19 +8651,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8711,13 +8688,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8735,56 +8712,56 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8796,19 +8773,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>240</v>
+        <v>476</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8833,13 +8810,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8857,7 +8834,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8869,25 +8846,25 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -8906,7 +8883,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8918,20 +8895,18 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>488</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8955,13 +8930,11 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8985,19 +8958,19 @@
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>489</v>
@@ -9009,15 +8982,15 @@
         <v>82</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9028,7 +9001,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -9040,18 +9013,20 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -9075,11 +9050,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9097,45 +9074,45 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>496</v>
+        <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9158,20 +9135,18 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>240</v>
+        <v>502</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9195,49 +9170,49 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>505</v>
+        <v>82</v>
       </c>
       <c r="Z57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>507</v>
@@ -9249,15 +9224,15 @@
         <v>82</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>82</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9280,16 +9255,16 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9339,45 +9314,45 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9400,18 +9375,20 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9459,45 +9436,45 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>104</v>
+        <v>525</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>523</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9508,7 +9485,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9520,20 +9497,16 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>528</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>529</v>
+        <v>108</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9581,19 +9554,19 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>527</v>
+        <v>110</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>533</v>
+        <v>82</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9602,10 +9575,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>535</v>
+        <v>111</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9616,21 +9589,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9642,15 +9615,17 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9699,19 +9674,19 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9723,7 +9698,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9734,14 +9709,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>112</v>
+        <v>531</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9754,24 +9729,26 @@
         <v>82</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>114</v>
+        <v>532</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>115</v>
+        <v>533</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9819,7 +9796,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>120</v>
+        <v>535</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9831,7 +9808,7 @@
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9843,7 +9820,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9854,46 +9831,42 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>113</v>
+        <v>537</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9941,19 +9914,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9962,10 +9935,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>82</v>
+        <v>541</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>192</v>
+        <v>542</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9976,10 +9949,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9990,7 +9963,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -10002,13 +9975,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10059,19 +10032,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10080,10 +10053,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10094,10 +10067,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10108,7 +10081,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10120,16 +10093,20 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>545</v>
+        <v>241</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10153,13 +10130,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>82</v>
+        <v>552</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10177,31 +10154,31 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>548</v>
+        <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>82</v>
+        <v>554</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>554</v>
+        <v>473</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10212,10 +10189,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10226,7 +10203,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10238,19 +10215,19 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10275,13 +10252,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10299,31 +10276,31 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>563</v>
-      </c>
       <c r="AN66" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10334,10 +10311,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10348,7 +10325,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10360,7 +10337,7 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>240</v>
+        <v>564</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>565</v>
@@ -10368,11 +10345,9 @@
       <c r="M67" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10397,13 +10372,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>570</v>
+        <v>82</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10421,31 +10396,31 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>563</v>
+        <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>481</v>
+        <v>568</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10456,10 +10431,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10470,7 +10445,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10482,18 +10457,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>572</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>575</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10541,19 +10514,19 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10562,10 +10535,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>82</v>
+        <v>541</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10576,10 +10549,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10590,7 +10563,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10599,18 +10572,20 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>106</v>
+        <v>574</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10659,19 +10634,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10680,10 +10655,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10694,10 +10669,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10717,19 +10692,19 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10779,7 +10754,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10791,7 +10766,7 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10800,10 +10775,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10814,10 +10789,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10831,27 +10806,29 @@
         <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O71" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10899,7 +10876,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10911,7 +10888,7 @@
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>590</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
@@ -10920,10 +10897,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10934,10 +10911,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10948,32 +10925,28 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>528</v>
+        <v>107</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>595</v>
+        <v>108</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -11021,19 +10994,19 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>594</v>
+        <v>110</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11042,10 +11015,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>600</v>
+        <v>111</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11056,21 +11029,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11082,15 +11055,17 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11139,19 +11114,19 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11163,7 +11138,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11174,14 +11149,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>112</v>
+        <v>531</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11194,24 +11169,26 @@
         <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>114</v>
+        <v>532</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>115</v>
+        <v>533</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11259,7 +11236,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>120</v>
+        <v>535</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11271,7 +11248,7 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11283,7 +11260,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11294,45 +11271,45 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>113</v>
+        <v>241</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>116</v>
+        <v>599</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>542</v>
+        <v>600</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11357,13 +11334,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11381,34 +11358,34 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>543</v>
+        <v>596</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>82</v>
+        <v>601</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>82</v>
@@ -11416,10 +11393,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11427,34 +11404,34 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>240</v>
+        <v>603</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="O76" t="s" s="2">
-        <v>608</v>
+        <v>403</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11479,13 +11456,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>330</v>
+        <v>607</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>331</v>
+        <v>608</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11503,45 +11480,45 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>609</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>335</v>
+        <v>407</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11552,19 +11529,19 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>611</v>
+        <v>241</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>612</v>
@@ -11576,7 +11553,7 @@
         <v>614</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11601,83 +11578,83 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI77" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="AJ77" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>618</v>
+        <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>405</v>
+        <v>193</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>82</v>
@@ -11686,19 +11663,19 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>620</v>
+        <v>465</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>621</v>
+        <v>466</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>622</v>
+        <v>467</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11723,13 +11700,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11747,49 +11724,49 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>623</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11808,19 +11785,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>473</v>
+        <v>618</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>474</v>
+        <v>619</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11845,13 +11822,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11869,7 +11846,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11881,151 +11858,29 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>481</v>
+        <v>527</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP80" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP80">
+  <autoFilter ref="A1:AP79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12035,7 +11890,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyTemperature.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="652">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17</t>
+    <t>2023-12-07</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,7 +88,7 @@
   </si>
   <si>
     <t>A profile on the Observation that declares how MHV will Create/Read in PGHD for body temperature measurements.
-Note this is compliant with FHIR core vital-signs.
+Note this is compliant with FHIR core vital-signs and bodytemp.
 - must be marked with MHV app tag
 - must have vital-signs category
 - must have LOINC#8310-5 code
@@ -130,7 +130,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/vitalsigns</t>
+    <t>http://hl7.org/fhir/StructureDefinition/bodytemp</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -285,10 +285,10 @@
 </t>
   </si>
   <si>
-    <t>FHIR Vital Signs Profile</t>
-  </si>
-  <si>
-    <t>The FHIR Vitals Signs profile sets minimum expectations for the Observation Resource to record, search and fetch the vital signs associated with a patient.</t>
+    <t>FHIR Body Temperature Profile</t>
+  </si>
+  <si>
+    <t>This profile defines  how to represent Body Temperature observations in FHIR using a standard LOINC code and UCUM units of measure.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
@@ -1038,31 +1038,22 @@
     <t>Observation.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Coded Responses from C-CDA Vital Sign Results</t>
-  </si>
-  <si>
-    <t>Coded Responses from C-CDA Vital Sign Results.</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+    <t>Name
+Test</t>
+  </si>
+  <si>
+    <t>Body Temperature</t>
+  </si>
+  <si>
+    <t>Body Temperature.</t>
+  </si>
+  <si>
+    <t>additional codes that translate or map to this code are allowed.  For example a more granular LOINC code or code that is used locally in a system.</t>
   </si>
   <si>
     <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="8310-5"/&gt;
-    &lt;display value="Body temperature"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
@@ -1085,6 +1076,76 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>value:code}
+value:system}</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempCode</t>
+  </si>
+  <si>
+    <t>BodyTempCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempCode.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempCode.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>8310-5</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyTempCode.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1309,10 +1370,25 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.id</t>
+  </si>
+  <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.extension</t>
+  </si>
+  <si>
     <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.value</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
@@ -1357,6 +1433,9 @@
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.comparator</t>
+  </si>
+  <si>
     <t>Observation.value[x].comparator</t>
   </si>
   <si>
@@ -1387,6 +1466,9 @@
     <t>IVL properties</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.unit</t>
+  </si>
+  <si>
     <t>Observation.value[x].unit</t>
   </si>
   <si>
@@ -1399,9 +1481,6 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PGHD/ValueSet/mhv-body-temperatures</t>
-  </si>
-  <si>
     <t>Quantity.unit</t>
   </si>
   <si>
@@ -1411,6 +1490,9 @@
     <t>PQ.unit</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.system</t>
+  </si>
+  <si>
     <t>Observation.value[x].system</t>
   </si>
   <si>
@@ -1421,6 +1503,9 @@
   </si>
   <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -1433,19 +1518,25 @@
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.code</t>
+  </si>
+  <si>
     <t>Observation.value[x].code</t>
   </si>
   <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
+    <t>Coded responses from the common UCUM units for vital signs value set.</t>
   </si>
   <si>
     <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Common UCUM units for Body Temperature.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ucum-bodytemp|4.0.1</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2307,7 +2398,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP79"/>
+  <dimension ref="A1:AP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2316,7 +2407,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.1875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -5015,7 +5106,7 @@
         <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>94</v>
@@ -6617,7 +6708,7 @@
         <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>82</v>
@@ -6635,10 +6726,10 @@
         <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6671,30 +6762,30 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AO36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6702,35 +6793,31 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6778,7 +6865,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>110</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6790,22 +6877,22 @@
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>347</v>
+        <v>111</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6813,21 +6900,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6836,19 +6923,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>115</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6886,19 +6973,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>349</v>
+        <v>121</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6910,7 +6997,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6919,13 +7006,13 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>354</v>
+        <v>111</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6933,21 +7020,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6959,19 +7046,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7008,25 +7095,23 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -7035,19 +7120,19 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7055,14 +7140,16 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="D40" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7072,7 +7159,7 @@
         <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
@@ -7081,19 +7168,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>368</v>
+        <v>147</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7130,44 +7217,46 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>263</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>376</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>379</v>
+        <v>265</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7175,48 +7264,42 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7264,7 +7347,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>110</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7273,25 +7356,25 @@
         <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>379</v>
+        <v>111</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7299,21 +7382,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7322,19 +7405,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>115</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
+        <v>116</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>386</v>
+        <v>117</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7372,31 +7455,31 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>383</v>
+        <v>121</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7405,13 +7488,13 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>388</v>
+        <v>111</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7419,10 +7502,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7430,10 +7513,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7445,24 +7528,26 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>391</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>82</v>
@@ -7504,13 +7589,13 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>390</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
@@ -7519,19 +7604,19 @@
         <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>396</v>
+        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>397</v>
+        <v>279</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7539,10 +7624,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7556,7 +7641,7 @@
         <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7565,20 +7650,18 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>400</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7626,7 +7709,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7635,7 +7718,7 @@
         <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>105</v>
@@ -7644,27 +7727,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7672,7 +7755,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>93</v>
@@ -7684,25 +7767,27 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
@@ -7744,7 +7829,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>110</v>
+        <v>294</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7756,7 +7841,7 @@
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7765,10 +7850,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7779,21 +7864,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7802,21 +7887,21 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7852,31 +7937,31 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7885,10 +7970,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7899,10 +7984,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7925,19 +8010,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>413</v>
+        <v>308</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>414</v>
+        <v>309</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7953,10 +8038,10 @@
         <v>82</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>82</v>
@@ -7986,7 +8071,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>419</v>
+        <v>312</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8007,10 +8092,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8021,10 +8106,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8041,30 +8126,30 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>423</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q48" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
         <v>82</v>
       </c>
@@ -8084,13 +8169,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -8108,7 +8193,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8129,10 +8214,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>430</v>
+        <v>322</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8143,10 +8228,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8154,13 +8239,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
@@ -8169,17 +8254,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8204,11 +8291,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8226,7 +8315,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>437</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8241,19 +8330,19 @@
         <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>438</v>
+        <v>368</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8261,10 +8350,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8275,7 +8364,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8287,18 +8376,18 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8346,16 +8435,16 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>105</v>
@@ -8367,13 +8456,13 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>438</v>
+        <v>334</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>446</v>
+        <v>376</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -8381,21 +8470,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8407,19 +8496,19 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>170</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8468,7 +8557,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>377</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8483,19 +8572,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8503,21 +8592,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>94</v>
@@ -8526,22 +8615,22 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8566,31 +8655,29 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8599,25 +8686,25 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>398</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>193</v>
+        <v>400</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>462</v>
+        <v>401</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8625,45 +8712,47 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="D53" t="s" s="2">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>467</v>
+        <v>393</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8688,13 +8777,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8712,45 +8801,45 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>463</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>398</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>471</v>
+        <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>473</v>
+        <v>401</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8761,7 +8850,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8770,23 +8859,21 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>476</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>477</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>478</v>
+        <v>407</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8834,13 +8921,13 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
@@ -8855,13 +8942,13 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>481</v>
+        <v>409</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>482</v>
+        <v>410</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8869,10 +8956,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8883,7 +8970,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8892,21 +8979,21 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>484</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8930,11 +9017,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8952,13 +9041,13 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
@@ -8967,30 +9056,30 @@
         <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>489</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>490</v>
+        <v>419</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>491</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9001,31 +9090,31 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>241</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>493</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>494</v>
+        <v>423</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>495</v>
+        <v>424</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>496</v>
+        <v>425</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9050,31 +9139,29 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>498</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>492</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9083,7 +9170,7 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -9092,29 +9179,31 @@
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>499</v>
+        <v>428</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>501</v>
+        <v>431</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9123,30 +9212,32 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>502</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>503</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>504</v>
+        <v>423</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9194,7 +9285,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>501</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9203,7 +9294,7 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -9212,27 +9303,27 @@
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>506</v>
+        <v>427</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>509</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>510</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>510</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9243,7 +9334,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9255,17 +9346,15 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>511</v>
+        <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>512</v>
+        <v>108</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9314,7 +9403,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9326,44 +9415,44 @@
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>515</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>517</v>
+        <v>111</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>518</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>519</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>519</v>
+        <v>436</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9375,20 +9464,18 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>520</v>
+        <v>114</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>521</v>
+        <v>115</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>522</v>
+        <v>116</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9424,19 +9511,19 @@
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>519</v>
+        <v>121</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9448,7 +9535,7 @@
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>525</v>
+        <v>122</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9457,10 +9544,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>526</v>
+        <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>527</v>
+        <v>111</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9471,10 +9558,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>528</v>
+        <v>437</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9482,31 +9569,35 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>439</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>108</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9521,10 +9612,10 @@
         <v>82</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>82</v>
@@ -9554,7 +9645,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>110</v>
+        <v>446</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9566,7 +9657,7 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9575,10 +9666,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>111</v>
+        <v>448</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9589,48 +9680,50 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>529</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>529</v>
+        <v>450</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="R61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9650,13 +9743,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9674,19 +9767,19 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>121</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9695,10 +9788,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>111</v>
+        <v>459</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9709,45 +9802,43 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>530</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>530</v>
+        <v>461</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>532</v>
+        <v>462</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>534</v>
+        <v>464</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9796,19 +9887,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>535</v>
+        <v>465</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9817,10 +9908,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>193</v>
+        <v>467</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9831,10 +9922,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>536</v>
+        <v>469</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9842,37 +9933,39 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>537</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>538</v>
+        <v>470</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>539</v>
+        <v>471</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>82</v>
@@ -9914,7 +10007,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>536</v>
+        <v>474</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9923,7 +10016,7 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>540</v>
+        <v>475</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9935,10 +10028,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>541</v>
+        <v>466</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9949,10 +10042,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>543</v>
+        <v>478</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9960,31 +10053,35 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>537</v>
+        <v>170</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>544</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10008,13 +10105,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10032,7 +10129,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>543</v>
+        <v>484</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10041,7 +10138,7 @@
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -10053,10 +10150,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>541</v>
+        <v>466</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>546</v>
+        <v>485</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10067,10 +10164,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>547</v>
+        <v>486</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>547</v>
+        <v>486</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10081,10 +10178,10 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>82</v>
@@ -10096,16 +10193,16 @@
         <v>241</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>548</v>
+        <v>487</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>549</v>
+        <v>488</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>550</v>
+        <v>489</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>551</v>
+        <v>490</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10130,13 +10227,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>553</v>
+        <v>492</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10154,7 +10251,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>547</v>
+        <v>486</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10163,7 +10260,7 @@
         <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10172,13 +10269,13 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>554</v>
+        <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>555</v>
+        <v>193</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10189,21 +10286,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10218,16 +10315,16 @@
         <v>241</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>557</v>
+        <v>497</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>558</v>
+        <v>498</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10252,13 +10349,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10276,7 +10373,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10294,27 +10391,27 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10337,17 +10434,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>564</v>
+        <v>508</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>567</v>
+        <v>512</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10396,13 +10495,13 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
@@ -10417,10 +10516,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>82</v>
+        <v>513</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10431,10 +10530,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>569</v>
+        <v>515</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>569</v>
+        <v>515</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10457,15 +10556,17 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>570</v>
+        <v>516</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10490,13 +10591,11 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10514,7 +10613,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>569</v>
+        <v>515</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10532,27 +10631,27 @@
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>82</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10572,21 +10671,23 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>574</v>
+        <v>241</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10610,13 +10711,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10634,13 +10735,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>573</v>
+        <v>524</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10655,10 +10756,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10669,10 +10770,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10692,19 +10793,19 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10754,13 +10855,13 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
@@ -10772,27 +10873,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>82</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>586</v>
+        <v>542</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>586</v>
+        <v>542</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10806,29 +10907,27 @@
         <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>587</v>
+        <v>545</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>589</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10876,45 +10975,45 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>586</v>
+        <v>542</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>590</v>
+        <v>105</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>591</v>
+        <v>548</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10925,7 +11024,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10937,16 +11036,20 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>107</v>
+        <v>552</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>108</v>
+        <v>553</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10994,19 +11097,19 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>110</v>
+        <v>551</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>82</v>
+        <v>557</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11015,10 +11118,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>111</v>
+        <v>559</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11029,21 +11132,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11055,17 +11158,15 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11114,19 +11215,19 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11149,14 +11250,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>531</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11169,26 +11270,24 @@
         <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>114</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>532</v>
+        <v>115</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>533</v>
+        <v>116</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="O74" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11236,7 +11335,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>535</v>
+        <v>121</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11260,7 +11359,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11271,45 +11370,45 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>82</v>
+        <v>563</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>599</v>
+        <v>117</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11334,13 +11433,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11358,34 +11457,34 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>601</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>336</v>
+        <v>193</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>82</v>
@@ -11393,10 +11492,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11410,29 +11509,25 @@
         <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11456,13 +11551,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>607</v>
+        <v>82</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11480,7 +11575,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11489,7 +11584,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11498,27 +11593,27 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>610</v>
+        <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>406</v>
+        <v>573</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>407</v>
+        <v>574</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11532,7 +11627,7 @@
         <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
@@ -11541,20 +11636,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>241</v>
+        <v>569</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11578,13 +11669,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11602,7 +11693,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11611,7 +11702,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11623,10 +11714,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>193</v>
+        <v>573</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>462</v>
+        <v>578</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11637,21 +11728,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11666,16 +11757,16 @@
         <v>241</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
+        <v>580</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>466</v>
+        <v>581</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>467</v>
+        <v>582</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>468</v>
+        <v>583</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11700,13 +11791,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>469</v>
+        <v>584</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>470</v>
+        <v>585</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11724,13 +11815,13 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
@@ -11742,27 +11833,27 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>471</v>
+        <v>586</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>472</v>
+        <v>587</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11785,19 +11876,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11822,13 +11913,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>82</v>
+        <v>594</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11846,7 +11937,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11864,23 +11955,1593 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP79">
+  <autoFilter ref="A1:AP92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11890,7 +13551,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
